--- a/data/001_misurazioni/misurazioni_master.xlsx
+++ b/data/001_misurazioni/misurazioni_master.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Documents/personale/CoachVolleyball/001_2223_PGSFOGLIZZESE/U14F/trainings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Documents/personale/U14F_blog_2223/data/001_misurazioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B8989B-ACD1-7F4D-A1EB-6BF0D5EDA69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFD43F8-958B-8246-84B0-72E0EFC00B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="8900" windowWidth="27640" windowHeight="16940" xr2:uid="{16EC1E6F-F961-5B48-9D8B-82F3A20D25B3}"/>
+    <workbookView xWindow="5820" yWindow="4660" windowWidth="27640" windowHeight="16940" xr2:uid="{16EC1E6F-F961-5B48-9D8B-82F3A20D25B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -121,12 +121,16 @@
     <t>yo-yo test</t>
   </si>
   <si>
-    <t>reach 1 mano 
-dinamico</t>
-  </si>
-  <si>
-    <t>reach 2 mani
-statico</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>rincorsa</t>
+  </si>
+  <si>
+    <t>muro</t>
   </si>
 </sst>
 </file>
@@ -150,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,11 +177,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,19 +527,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572B3500-6054-8540-B4F7-79E80B140921}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,17 +558,23 @@
       <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>22</v>
       </c>
@@ -568,8 +592,10 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42</v>
       </c>
@@ -587,8 +613,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>65</v>
       </c>
@@ -606,8 +634,10 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -625,8 +655,10 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>28</v>
       </c>
@@ -644,8 +676,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>56</v>
       </c>
@@ -663,8 +697,10 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>32</v>
       </c>
@@ -682,8 +718,10 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>14</v>
       </c>
@@ -701,8 +739,10 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>27</v>
       </c>
@@ -720,8 +760,10 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -739,8 +781,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>54</v>
       </c>
@@ -758,6 +802,8 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
